--- a/ilkeff/evidence.xlsx
+++ b/ilkeff/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UMUT\Desktop\coins\gon testnet\ilkeff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UMUT\Desktop\coins\gon testnet\0k_ilkeff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D282776-619A-4FB4-A564-F1CBD62A4748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4B34C-16EC-48AA-BBDD-FC3AF5611597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="1" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="48">
   <si>
     <t>TxHash</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>F6A8E8628A94F18985639E1718CAF56DC367A097B261BFCB5F48562A0AED9809</t>
+  </si>
+  <si>
+    <t>CC513B0B8C3F44C5C4EE0AEDDA869E1ABD62CED3CD7FF5049E2486C16C64BA5A</t>
+  </si>
+  <si>
+    <t>9D4AE6B6A66A23BF6E0C0DD855DCE74F228CE7FF14ADB17F686E01745819AF91</t>
+  </si>
+  <si>
+    <t>2BAC04785F78F5EC7BEE6A1E993E96E3C49EDF376E0068D6D7019EFB029B71F6</t>
+  </si>
+  <si>
+    <t>549F2AFB4B42A5CE305AEECB13DA06146D49F67F5224A85792BA68848F564FB2</t>
   </si>
 </sst>
 </file>
@@ -578,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1235,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1237,12 +1251,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1271,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1271,12 +1287,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ilkeff/evidence.xlsx
+++ b/ilkeff/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UMUT\Desktop\coins\gon testnet\0k_ilkeff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UMUT\Desktop\coins\gon testnet\_0k_ilkeff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4B34C-16EC-48AA-BBDD-FC3AF5611597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A9647-431E-4B46-AA2C-4A917F061EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="1" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="94">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -188,13 +173,166 @@
   </si>
   <si>
     <t>549F2AFB4B42A5CE305AEECB13DA06146D49F67F5224A85792BA68848F564FB2</t>
+  </si>
+  <si>
+    <t>ibc/6AEEF58EA1B92CB81D67B39090FC8CE3613C22AC25FF9F667EE6CD07902211E1</t>
+  </si>
+  <si>
+    <t>ilkeffA7</t>
+  </si>
+  <si>
+    <t>ibc/BDBAF411BFA9BF03067B9B14D6907E1638C59BDFB9985810C1E89A7D27CF3B4D</t>
+  </si>
+  <si>
+    <t>ilkeffA8</t>
+  </si>
+  <si>
+    <t>ibc/263572EF8B7A23B9BB6D8FB650B8CBAE367875C07D2122F4978948965CCD8858</t>
+  </si>
+  <si>
+    <t>ilkeffA9</t>
+  </si>
+  <si>
+    <t>ibc/F9A83093B1CA2E4651C8DE81E528F8E3497E06CA202DA2E4C076E1E9E855B821</t>
+  </si>
+  <si>
+    <t>ilkeffA10</t>
+  </si>
+  <si>
+    <t>ibc/70322A904FD33F7A1C3D05D7A832A7445523AF1AC3BA53F466B18209B702D58D</t>
+  </si>
+  <si>
+    <t>ilkeffA11</t>
+  </si>
+  <si>
+    <t>ibc/D097EC78978B3265F46471FB6D8B28568677016577F3DCA71FCF85F63B800E03</t>
+  </si>
+  <si>
+    <t>ilkeffA12</t>
+  </si>
+  <si>
+    <t>7863611845E0BF0E43189EDB288B98638DDEFF038728AD0FC3F523A39B081EDB</t>
+  </si>
+  <si>
+    <t>9BC8269C143CE55EC451CD731785782A436A7780204A56F0712B737216180912</t>
+  </si>
+  <si>
+    <t>4FE9EBADB641B4A395954A488EC35499683DAA68872F21E6F61A4980FE600DF1</t>
+  </si>
+  <si>
+    <t>1C340E2DA960AEBEE78D6515CA70C06728D5BF443264FAADB4B8B9595E6BC84A</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>C17B8659F5A20CE3A92833264181F6F2761C5650973A08515123BFC65BC1794A</t>
+  </si>
+  <si>
+    <t>672A81E2A0A1BAF85644A7C2FCB2C67504BCA03F74F954DDB5F6AA4F4DE718B6</t>
+  </si>
+  <si>
+    <t>76C437C02CF33F49AFF0D71D7DACB2D4BE20E609F6260446B6925ADCD1A4479F</t>
+  </si>
+  <si>
+    <t>423E7923F16FF96DC2BBC74448594BAE8C9823BE15D85C1BF32C99B1A38DA5C1</t>
+  </si>
+  <si>
+    <t>C3FF00B410F63642F397E5EB02DE4C2A64C50BD8E156E2F519852E721F991897</t>
+  </si>
+  <si>
+    <t>360596F343D271078732A7ED89A10A5A208239C1142DDA6DC000B3F6055DC762</t>
+  </si>
+  <si>
+    <t>C21EC501C63172A76DBB68C1D9261172CC36BA9DD359DC497EBC8C427F151212</t>
+  </si>
+  <si>
+    <t>A080B9764C5B153522641BDB727FD779D45521E6BB13C15B4A8DF67354DCC00F</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>6A93E49793C8B74BFB9A5CD39E8C77AFBAC83859ED1AD29974C4959BDDD97F74</t>
+  </si>
+  <si>
+    <t>FF75908AA25A2AF14029A78725CF23E1375BF621CB657BE5F4335CA25B553C5E</t>
+  </si>
+  <si>
+    <t>FC1CA0AA3160676B950BA1E4B5E371F509136908CC98B544DF733A94F32ACEEB</t>
+  </si>
+  <si>
+    <t>F99079B47DBF9566ADDF6416398F9504D1FA7CBF756F1D4C50E5926D3BAFD016</t>
+  </si>
+  <si>
+    <t>134C1B4F5FD8028EACEAEB8A2361DDA3E9BBB1C9F96F07953FD8D257DA164775</t>
+  </si>
+  <si>
+    <t>A0DBBBF12D606ACCCBCD299F5D765D88A195371005C8EDB19B2AA1852F59C5F8</t>
+  </si>
+  <si>
+    <t>9207DE115BB1EB8F1269F754279F55DF3D13E8A3B09948A58B52FF4897C515C1</t>
+  </si>
+  <si>
+    <t>07B01421C20C2B7021DFDD90F41540F7B33454530BF1B6BAECB3CC05A1436039</t>
+  </si>
+  <si>
+    <t>2CC138197BD1EC791C264837F9FD645C042EA64126ADF9CC3CDE95FB2B04CCBE</t>
+  </si>
+  <si>
+    <t>C62B49EC901B6FF4F573FADB74336D391C3799021B41F694208813152B18DD34</t>
+  </si>
+  <si>
+    <t>E42C80895B24577480D12168F2FE286E489364082CCE2946BF00E7806093E5CF</t>
+  </si>
+  <si>
+    <t>4CF6E17BA8116022D22BD73E783062C606B7E858B18D6F2633C92F01302AA666</t>
+  </si>
+  <si>
+    <t>DA83EA0613348A2A586E573B1F7024B28C350C8BE3B25AE4201735047B0A001D</t>
+  </si>
+  <si>
+    <t>23F847BE1B0C1EF22D625D199BB8F4C8536E866D4F1BC029AFE799F0B5076A61</t>
+  </si>
+  <si>
+    <t>A59206C5C92C925BC360F6A7F0296E6ED0DE86362DA7425A4671BE0416FA6294</t>
+  </si>
+  <si>
+    <t>FBAD2C0C6CE198E63B776A29650C55CAF8894A6AD492E9D788D39BF77FF81CF5</t>
+  </si>
+  <si>
+    <t>F752018CE2D815109B34F3E81322D9EF0CE3C8EE99625684FCF963984E646AAA</t>
+  </si>
+  <si>
+    <t>23E0692CB042C0CB988D34786C9FF881527505D491C8F31FDF250C78FBEF2619</t>
+  </si>
+  <si>
+    <t>5CE945790118FFC7CA60C5EC710616D7614A1A90DFF67C308D287FB0A7994E8E</t>
+  </si>
+  <si>
+    <t>A86109A7FC4E7DF43DDAE6E14B21884D8D292D08E7813247A0B66232EF3A2EEC</t>
+  </si>
+  <si>
+    <t>3C7B93FFEE69CC027373769742A07D866E4175EA6E7BCA0AE87001239C17638E</t>
+  </si>
+  <si>
+    <t>991E6C957B5080047E59D187F1EC74058BE64D0AE88F3C2F10FE81980D550B45</t>
+  </si>
+  <si>
+    <t>71186BC803A7E5EC0D85CC99FD8EB8115E2A2CE6D5F1C0C8B5F1F433C6CD3DC0</t>
+  </si>
+  <si>
+    <t>9782DB7057A00E310A7895CBC752892DB00AC460D8C2AE329B4B8F9C0840FB53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +351,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="4">
@@ -264,10 +423,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -283,9 +443,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{568F8E3A-7750-4684-9384-63BDE346C05A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,7 +757,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,54 +774,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +836,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -680,33 +848,558 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -716,33 +1409,75 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+      <c r="A2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -752,78 +1487,6 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -831,397 +1494,52 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="A3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1251,12 +1569,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1589,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1287,12 +1605,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1390,54 +1708,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1469,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1480,16 +1798,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1520,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1531,16 +1849,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1571,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1582,16 +1900,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1623,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1634,16 +1952,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1976,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1668,18 +1988,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +2014,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1704,18 +2026,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+      <c r="A2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/ilkeff/evidence.xlsx
+++ b/ilkeff/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UMUT\Desktop\coins\gon testnet\_0k_ilkeff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UMUT\Desktop\coins\gon testnet\_ALL_ilkeff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A9647-431E-4B46-AA2C-4A917F061EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BEFD69-8210-4669-8A7F-97BC888B96F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="4" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -326,6 +321,24 @@
   </si>
   <si>
     <t>9782DB7057A00E310A7895CBC752892DB00AC460D8C2AE329B4B8F9C0840FB53</t>
+  </si>
+  <si>
+    <t>F51126FDF8BD30B4461B29DF0D496B5A6EB405BB91390E48DC61C3F894A7827A</t>
+  </si>
+  <si>
+    <t>D5C283814D448DC1616B4390C9B753059FF2F1D22347DDD1601D0BEF80BE6A0D</t>
+  </si>
+  <si>
+    <t>597DBA3441E76E64B950AB7406A79D186FC160247FF1696748A534E21D55A38B</t>
+  </si>
+  <si>
+    <t>4652E30E5503677E9E2B28315F855AF882804119FC8C2F32A9EADDD63C45675E</t>
+  </si>
+  <si>
+    <t>3D69D86DF0B23B4CDC78F9A0857C07F285D4E500C5225FCE3159E875A321B771</t>
+  </si>
+  <si>
+    <t>4501AAAB86B0DE383AC642C8F02AA504F4262455A43CA4550139553F57493EE5</t>
   </si>
 </sst>
 </file>
@@ -774,54 +787,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -848,10 +861,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -867,8 +918,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -886,10 +937,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -905,8 +956,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -924,10 +975,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -943,15 +994,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,34 +1013,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,48 +1078,110 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="B4" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1065,48 +1202,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>64</v>
+      <c r="A5" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1127,48 +1264,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1189,55 +1326,92 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,55 +1425,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,232 +1503,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1568,6 +1581,42 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1582,8 +1631,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1605,27 +1654,29 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1639,31 +1690,30 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455546E7-B124-4249-B7F2-663414A78D7A}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1673,12 +1723,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1708,54 +1758,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1787,27 +1837,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1838,27 +1888,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1889,27 +1939,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1941,27 +1991,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1988,10 +2038,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,42 +2093,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>